--- a/va_facility_data_2025-02-20/Atlanta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Atlanta%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Atlanta VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Atlanta%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd88b5e6aa53540f39bd45c20393a9b13"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raddf39b47ee14c40973015ca796bd4fc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1e384f17d9424338b46f63d684598686"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra3daccab4f3a4ed2b1c0d0f2bb976b4d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0f76aa8eeee64d459dd636230dd4e32f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb4d3ea8edfb3421d83494eacc5618526"/>
   </x:sheets>
 </x:workbook>
 </file>
